--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail5 Features.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2484,29 +2484,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2527,115 +2525,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2652,72 +2640,66 @@
         <v>3.721966352020476e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5348031747859512</v>
+        <v>1.182717778719657e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.166663967637527</v>
+        <v>6.840591370270157e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.182717778719657e-06</v>
+        <v>-0.03856669271172299</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.840591370270157e-06</v>
+        <v>0.2237770197759662</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03856669271172299</v>
+        <v>0.05153639335498596</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2237770197759662</v>
+        <v>1.67838035259546</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05153639335498596</v>
+        <v>1.27954443645676</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.622182207227283</v>
+        <v>4.866845052972295</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.27954443645676</v>
+        <v>1.060492910248649e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.866845052972295</v>
+        <v>5110860.521336822</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.060492910248649e-13</v>
+        <v>2.200244109700556e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5110860.521336822</v>
+        <v>2.770102424165461</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.200244109700556e-05</v>
+        <v>0.0002787685132180801</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.770102424165461</v>
+        <v>11.71957337274853</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002787685132180801</v>
+        <v>1.392983273683736</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.71957337274853</v>
+        <v>0.03828840927181999</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.392983273683736</v>
+        <v>2.328464045889608</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03828840927181999</v>
+        <v>0.9459407611221464</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.328464045889608</v>
+        <v>1.855487952561168</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9459407611221464</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.855487952561168</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1357608273907448</v>
       </c>
     </row>
@@ -2732,72 +2714,66 @@
         <v>3.677840064492737e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6078214471856448</v>
+        <v>1.182717778719657e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.056495238235537</v>
+        <v>6.82847339208599e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.182717778719657e-06</v>
+        <v>-0.02778989011295102</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.82847339208599e-06</v>
+        <v>0.2220615845004596</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02778989011295102</v>
+        <v>0.05007556218608229</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2220615845004596</v>
+        <v>1.69267683038631</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05007556218608229</v>
+        <v>1.400051779364924</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.649546674850687</v>
+        <v>4.972969272579073</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.400051779364924</v>
+        <v>3.712436807012624e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.972969272579073</v>
+        <v>15008361.93025425</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.712436807012624e-14</v>
+        <v>7.261481517919773e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15008361.93025425</v>
+        <v>8.362298352879986</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.261481517919773e-06</v>
+        <v>0.0002588054766962929</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.362298352879986</v>
+        <v>12.78083932513807</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002588054766962929</v>
+        <v>1.203652449322549</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.78083932513807</v>
+        <v>0.04227583679521198</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.203652449322549</v>
+        <v>2.35580866330914</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04227583679521198</v>
+        <v>0.9533495682755899</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.35580866330914</v>
+        <v>1.653532795425227</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9533495682755899</v>
+        <v>2</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.653532795425227</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2038079931055463</v>
       </c>
     </row>
@@ -2812,72 +2788,66 @@
         <v>3.645509674337083e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6761150453172364</v>
+        <v>1.182717778719657e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9462754240531979</v>
+        <v>6.819353411512839e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.182717778719657e-06</v>
+        <v>-0.02320146563496945</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.819353411512839e-06</v>
+        <v>0.2246760455311771</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02320146563496945</v>
+        <v>0.05101731336598065</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2246760455311771</v>
+        <v>1.671625416603508</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05101731336598065</v>
+        <v>1.485094809361616</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.614583596688137</v>
+        <v>4.543168487579919</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.485094809361616</v>
+        <v>5.191976858182412e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.543168487579919</v>
+        <v>11035772.05690917</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.191976858182412e-14</v>
+        <v>9.768140750796304e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>11035772.05690917</v>
+        <v>6.323218529177511</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.768140750796304e-06</v>
+        <v>0.0003006218945844606</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.323218529177511</v>
+        <v>9.579007277765587</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0003006218945844606</v>
+        <v>1.934861196745873</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.579007277765587</v>
+        <v>0.02758427754621797</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.934861196745873</v>
+        <v>2.524858118723249</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02758427754621797</v>
+        <v>0.9538056649594866</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.524858118723249</v>
+        <v>1.857252265417835</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9538056649594866</v>
+        <v>2</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.857252265417835</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1637330393206105</v>
       </c>
     </row>
@@ -2892,72 +2862,66 @@
         <v>3.608651906331925e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7439092091980382</v>
+        <v>1.182717778719657e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.820980567684241</v>
+        <v>6.810724584072356e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.182717778719657e-06</v>
+        <v>-0.02527050859763162</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.810724584072356e-06</v>
+        <v>0.225930655233358</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02527050859763162</v>
+        <v>0.05167906531129614</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.225930655233358</v>
+        <v>1.618633121081038</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05167906531129614</v>
+        <v>1.588728792915611</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.559802959462352</v>
+        <v>4.433920649674453</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.588728792915611</v>
+        <v>5.450980161452084e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.433920649674453</v>
+        <v>10574274.78821409</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.450980161452084e-14</v>
+        <v>9.936574289327928e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10574274.78821409</v>
+        <v>6.095029128011593</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.936574289327928e-06</v>
+        <v>0.0001865866298006077</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.095029128011593</v>
+        <v>9.24132233681973</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001865866298006077</v>
+        <v>1.646099423185091</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.24132233681973</v>
+        <v>0.01593487854797471</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.646099423185091</v>
+        <v>2.938040965206915</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01593487854797471</v>
+        <v>0.9521835934750648</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.938040965206915</v>
+        <v>1.814780685798118</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9521835934750648</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.814780685798118</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1587493298515346</v>
       </c>
     </row>
@@ -2972,72 +2936,66 @@
         <v>3.548953451458475e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8172771071116046</v>
+        <v>1.182717778719657e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6547666005848765</v>
+        <v>6.800633998106463e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.182717778719657e-06</v>
+        <v>-0.03156176399852342</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.800633998106463e-06</v>
+        <v>0.224210375378709</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03156176399852342</v>
+        <v>0.05125447710327673</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.224210375378709</v>
+        <v>1.594297325217822</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05125447710327673</v>
+        <v>1.488391908493009</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.530344527768443</v>
+        <v>4.460259248240755</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.488391908493009</v>
+        <v>5.386792290730373e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.460259248240755</v>
+        <v>10141157.90843687</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.386792290730373e-14</v>
+        <v>1.005818812434201e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>10141157.90843687</v>
+        <v>5.539943305585828</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.005818812434201e-05</v>
+        <v>0.0001328034335611082</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.539943305585828</v>
+        <v>9.344042254065494</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001328034335611082</v>
+        <v>1.174904698686855</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.344042254065494</v>
+        <v>0.01159521727384244</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.174904698686855</v>
+        <v>2.989278596724811</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01159521727384244</v>
+        <v>0.9508360652095825</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.989278596724811</v>
+        <v>1.857272239040002</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9508360652095825</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.857272239040002</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1860416074807406</v>
       </c>
     </row>
@@ -3052,72 +3010,66 @@
         <v>3.444337871573754e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8829245013132357</v>
+        <v>1.182717778719657e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.4664565712597701</v>
+        <v>6.78831963153366e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.182717778719657e-06</v>
+        <v>-0.03838862336987005</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.78831963153366e-06</v>
+        <v>0.2245080230981156</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03838862336987005</v>
+        <v>0.05187303999768361</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2245080230981156</v>
+        <v>1.526954051314501</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05187303999768361</v>
+        <v>1.492840730702117</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.465651418946203</v>
+        <v>4.338055073598714</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.492840730702117</v>
+        <v>5.694561821727002e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.338055073598714</v>
+        <v>10211373.7250968</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.694561821727002e-14</v>
+        <v>9.424942741493332e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>10211373.7250968</v>
+        <v>5.937842235566579</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.424942741493332e-06</v>
+        <v>0.0001269174968481147</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.937842235566579</v>
+        <v>8.886763596256603</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001269174968481147</v>
+        <v>1.246782622576479</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.886763596256603</v>
+        <v>0.01002325438568638</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.246782622576479</v>
+        <v>2.91871349694524</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01002325438568638</v>
+        <v>0.943316424794603</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.91871349694524</v>
+        <v>1.864124198157535</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.943316424794603</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.864124198157535</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1988099932144531</v>
       </c>
     </row>
@@ -3494,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.27652332668764</v>
+        <v>1.27648173119275</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.657383302095789</v>
@@ -3583,7 +3535,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.279740561209615</v>
+        <v>1.280888166255102</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.656630336047786</v>
@@ -3672,7 +3624,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.271835120284573</v>
+        <v>1.271744026819291</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.633630111529589</v>
@@ -3761,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.267775334496027</v>
+        <v>1.269706705088222</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.646358998801117</v>
@@ -3850,7 +3802,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.265529806811656</v>
+        <v>1.269963965920761</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.632481816868601</v>
@@ -3939,7 +3891,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.436951668423986</v>
+        <v>1.449743083878912</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.86757216937817</v>
@@ -4028,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.488585143323094</v>
+        <v>1.507688867802125</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.559783624000916</v>
@@ -4117,7 +4069,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.500871529333925</v>
+        <v>1.52168525162443</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.750382127845524</v>
@@ -4206,7 +4158,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.527392847040602</v>
+        <v>1.544820311420771</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.57550607294785</v>
@@ -4295,7 +4247,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539047507826832</v>
+        <v>1.552646045327234</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.534388638625972</v>
@@ -4384,7 +4336,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.546881357592525</v>
+        <v>1.56123396523359</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.633855673208031</v>
@@ -4473,7 +4425,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.562857784039241</v>
+        <v>1.566875880897982</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.551466246804619</v>
@@ -4562,7 +4514,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.525382825555654</v>
+        <v>1.538135561866291</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.639766651512155</v>
@@ -4651,7 +4603,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538682660691979</v>
+        <v>1.549140014228067</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.444037674084202</v>
@@ -4740,7 +4692,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.54033937715986</v>
+        <v>1.552215949514408</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.583905014082482</v>
@@ -4829,7 +4781,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.558468280841597</v>
+        <v>1.559893529842372</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.524214655426328</v>
@@ -4918,7 +4870,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.548570161865481</v>
+        <v>1.549727628369164</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.696137837405191</v>
@@ -5007,7 +4959,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546491692017444</v>
+        <v>1.545402052847775</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.693646277740259</v>
@@ -5096,7 +5048,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569183306292214</v>
+        <v>1.557163984513302</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.472573751134446</v>
@@ -5185,7 +5137,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.590032927033856</v>
+        <v>1.576784977932686</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.572056314454061</v>
@@ -5274,7 +5226,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.584741407657858</v>
+        <v>1.565491795921321</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.588494197961881</v>
@@ -5363,7 +5315,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.591394198208941</v>
+        <v>1.565694996318813</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.430611929723972</v>
@@ -5452,7 +5404,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.607342367084309</v>
+        <v>1.579780279922302</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.615516000980187</v>
@@ -5541,7 +5493,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.597685403480488</v>
+        <v>1.573304309939659</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.59714856937565</v>
@@ -5630,7 +5582,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592118165085524</v>
+        <v>1.56696483758327</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.586260276595736</v>
@@ -5719,7 +5671,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585998207462168</v>
+        <v>1.560177200417375</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.642478122544719</v>
@@ -5808,7 +5760,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599796921912887</v>
+        <v>1.579058217353156</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.194665066362264</v>
@@ -5897,7 +5849,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.602906479917855</v>
+        <v>1.579710242638837</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.805806058444476</v>
@@ -5986,7 +5938,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591990682456007</v>
+        <v>1.565868028550619</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.796580371145689</v>
@@ -6075,7 +6027,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591441492949611</v>
+        <v>1.559488248644638</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.659482493782439</v>
@@ -6164,7 +6116,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595922216346275</v>
+        <v>1.561615046422216</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.441445353563697</v>
@@ -6253,7 +6205,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.586506439215435</v>
+        <v>1.549447830053294</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.914571534375163</v>
@@ -6342,7 +6294,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598037359978984</v>
+        <v>1.559508307489029</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.664081552918803</v>
@@ -6431,7 +6383,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59461967182288</v>
+        <v>1.557908163512782</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.812922338634084</v>
@@ -6520,7 +6472,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.597745095815581</v>
+        <v>1.558430243286276</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.798767696860508</v>
@@ -6609,7 +6561,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.592982748407307</v>
+        <v>1.553796394997981</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.68524095776454</v>
@@ -6698,7 +6650,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606719734590984</v>
+        <v>1.560127653967009</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.6564760718893</v>
@@ -6787,7 +6739,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601196897966024</v>
+        <v>1.554559736696346</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.632903085462107</v>
@@ -6876,7 +6828,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605656934773132</v>
+        <v>1.550635153392704</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.666501290008215</v>
@@ -6965,7 +6917,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605999105680026</v>
+        <v>1.551624866377093</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.850639241136931</v>
@@ -7054,7 +7006,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619020438245832</v>
+        <v>1.55470769787283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.533124043050267</v>
@@ -7143,7 +7095,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624886514302224</v>
+        <v>1.543762701827517</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.714660175625913</v>
@@ -7232,7 +7184,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.658849459435492</v>
+        <v>1.564973897741936</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.395812315137572</v>
@@ -7321,7 +7273,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.673668811645158</v>
+        <v>1.575879028519768</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.551860536184141</v>
@@ -7410,7 +7362,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.669228485425506</v>
+        <v>1.565579517748625</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.610639417233239</v>
@@ -7499,7 +7451,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.690014047040929</v>
+        <v>1.586903836268848</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.139008287570141</v>
@@ -7588,7 +7540,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.704891109676143</v>
+        <v>1.595815731716027</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.142922081517306</v>
@@ -7677,7 +7629,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.687404674422661</v>
+        <v>1.580229680146963</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.946017902499939</v>
@@ -7766,7 +7718,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.678113067184028</v>
+        <v>1.567215747152988</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.927301891659309</v>
@@ -7855,7 +7807,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.628891855034257</v>
+        <v>1.537158528437035</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.575342940908253</v>
@@ -7944,7 +7896,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610789787823688</v>
+        <v>1.552928904881158</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.442890052688077</v>
@@ -8230,7 +8182,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.488960133617813</v>
+        <v>1.481829864648094</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.793267763438364</v>
@@ -8319,7 +8271,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492976827022319</v>
+        <v>1.48176582295522</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.761719791419557</v>
@@ -8408,7 +8360,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.491087750336823</v>
+        <v>1.479933299818295</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.773232202640034</v>
@@ -8497,7 +8449,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.487716535611662</v>
+        <v>1.480683757311224</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.747475548200036</v>
@@ -8586,7 +8538,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.503372133872186</v>
+        <v>1.492752621773349</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.747509739437721</v>
@@ -8675,7 +8627,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.76725767521549</v>
+        <v>1.709424567994313</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.721164863319097</v>
@@ -8764,7 +8716,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.804446916126922</v>
+        <v>1.743626094086162</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.491534130883678</v>
@@ -8853,7 +8805,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.807292156556102</v>
+        <v>1.739606488707708</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.729866620997932</v>
@@ -8942,7 +8894,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.809663458693924</v>
+        <v>1.744399217552606</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.391063264597085</v>
@@ -9031,7 +8983,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.808845034429167</v>
+        <v>1.749300540809308</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.358523828483285</v>
@@ -9120,7 +9072,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.813456836931234</v>
+        <v>1.75307453867455</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.799650784417732</v>
@@ -9209,7 +9161,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.811775040675303</v>
+        <v>1.744958009498352</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.776718610637202</v>
@@ -9298,7 +9250,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.80416904281347</v>
+        <v>1.735773848186678</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.461945522139519</v>
@@ -9387,7 +9339,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.795485087868163</v>
+        <v>1.733567386581857</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.590038301494475</v>
@@ -9476,7 +9428,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.794525220396453</v>
+        <v>1.739347121720029</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.653387364678191</v>
@@ -9565,7 +9517,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.777207548740947</v>
+        <v>1.722262083245251</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.241293082337285</v>
@@ -9654,7 +9606,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763505000858433</v>
+        <v>1.698596429607848</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.077287688359906</v>
@@ -9743,7 +9695,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753390293523118</v>
+        <v>1.689687596395559</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.240703821620143</v>
@@ -9832,7 +9784,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750101878829237</v>
+        <v>1.681412960876696</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.286266363728308</v>
@@ -9921,7 +9873,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.750164310191271</v>
+        <v>1.681376790017546</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.061201828685699</v>
@@ -10010,7 +9962,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.745568618209665</v>
+        <v>1.674341451298557</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.10206826600503</v>
@@ -10099,7 +10051,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.739934841315848</v>
+        <v>1.659674171716035</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.131096370336342</v>
@@ -10188,7 +10140,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.73503223500774</v>
+        <v>1.658977560041171</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.081724582569429</v>
@@ -10277,7 +10229,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.732567558513746</v>
+        <v>1.65635582022645</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.228602248139035</v>
@@ -10366,7 +10318,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.72886535488162</v>
+        <v>1.652161580083339</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.069009311431014</v>
@@ -10455,7 +10407,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.726819047827363</v>
+        <v>1.653172211372173</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.904950171131885</v>
@@ -10544,7 +10496,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.72892394850876</v>
+        <v>1.658692603446176</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.16440140396727</v>
@@ -10633,7 +10585,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.716637884120108</v>
+        <v>1.647622623241056</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.874385185767849</v>
@@ -10722,7 +10674,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721426912448109</v>
+        <v>1.650738066101252</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.316040633640517</v>
@@ -10811,7 +10763,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.710745248100662</v>
+        <v>1.635997635145445</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.035859844872808</v>
@@ -10900,7 +10852,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.722484751191913</v>
+        <v>1.648210844290408</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.379592793857309</v>
@@ -10989,7 +10941,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.71106189563943</v>
+        <v>1.64595075376778</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.252881587895487</v>
@@ -11078,7 +11030,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719641364101234</v>
+        <v>1.648819493455601</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.258181434293972</v>
@@ -11167,7 +11119,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716780790943888</v>
+        <v>1.645604214300567</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.558337579517619</v>
@@ -11256,7 +11208,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.710729180769385</v>
+        <v>1.641770113404344</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.263497595237805</v>
@@ -11345,7 +11297,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.700943989664414</v>
+        <v>1.630907914466877</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.066196086032625</v>
@@ -11434,7 +11386,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.717015035408123</v>
+        <v>1.646145111142455</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.320120517023839</v>
@@ -11523,7 +11475,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.698650276837861</v>
+        <v>1.630737999502781</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.328947644691936</v>
@@ -11612,7 +11564,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.688666062448163</v>
+        <v>1.61466495858433</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.385948694677364</v>
@@ -11701,7 +11653,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.683072892844836</v>
+        <v>1.602312627228597</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.119436967050195</v>
@@ -11790,7 +11742,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.682134302278592</v>
+        <v>1.60007348976999</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.974664507398419</v>
@@ -11879,7 +11831,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.667494346019179</v>
+        <v>1.572444019015238</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.384733088114703</v>
@@ -11968,7 +11920,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669764176588189</v>
+        <v>1.571013048244926</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.116565904429825</v>
@@ -12057,7 +12009,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.665401493380062</v>
+        <v>1.559949872005738</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.347755878446752</v>
@@ -12146,7 +12098,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666211748322632</v>
+        <v>1.550526142776349</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.912416608370346</v>
@@ -12235,7 +12187,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.666167052775944</v>
+        <v>1.546487047995168</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.427137774839013</v>
@@ -12324,7 +12276,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.665420075371522</v>
+        <v>1.541977659800487</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.210469563432777</v>
@@ -12413,7 +12365,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65023813678814</v>
+        <v>1.527539970258829</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.963435941257035</v>
@@ -12502,7 +12454,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.642564098390812</v>
+        <v>1.516678652828123</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.238961403264052</v>
@@ -12591,7 +12543,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.625643417538685</v>
+        <v>1.514143628253091</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.541868336168912</v>
@@ -12680,7 +12632,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.659485529903796</v>
+        <v>1.570658736287623</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.630857658397112</v>
@@ -12966,7 +12918,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.527236223039079</v>
+        <v>1.485667242147279</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.886137826935462</v>
@@ -13055,7 +13007,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515748377075188</v>
+        <v>1.472407657772061</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.865593799405583</v>
@@ -13144,7 +13096,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515442081502807</v>
+        <v>1.469344470782945</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.858932367285272</v>
@@ -13233,7 +13185,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.505164568610631</v>
+        <v>1.456596269281973</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.83347660870932</v>
@@ -13322,7 +13274,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.512567563764753</v>
+        <v>1.468497132886923</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.842653039433663</v>
@@ -13411,7 +13363,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.761972156944339</v>
+        <v>1.65258486530059</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.237007290769112</v>
@@ -13500,7 +13452,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.758439045862042</v>
+        <v>1.656023231852572</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.201673350484764</v>
@@ -13589,7 +13541,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.756492451743768</v>
+        <v>1.650760483642604</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.662994922559908</v>
@@ -13678,7 +13630,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.754417625405644</v>
+        <v>1.652089469289574</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.594448735797751</v>
@@ -13767,7 +13719,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.754542584616319</v>
+        <v>1.653111004808539</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.513976889976766</v>
@@ -13856,7 +13808,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.753834280028515</v>
+        <v>1.653711027019805</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.464047156246072</v>
@@ -13945,7 +13897,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.751369719495519</v>
+        <v>1.648356283860681</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.590479251395784</v>
@@ -14034,7 +13986,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.743951416829568</v>
+        <v>1.642376371135263</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.673509568026186</v>
@@ -14123,7 +14075,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.735689066104746</v>
+        <v>1.636426296225583</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.708186425106129</v>
@@ -14212,7 +14164,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.730475876832523</v>
+        <v>1.637923921901378</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.557258457400204</v>
@@ -14301,7 +14253,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.735334097470607</v>
+        <v>1.643326780657937</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.490394594373314</v>
@@ -14390,7 +14342,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.727654866622537</v>
+        <v>1.632866616127668</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.670551151281106</v>
@@ -14479,7 +14431,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.716972142224756</v>
+        <v>1.620559304785747</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.713471111351466</v>
@@ -14568,7 +14520,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.722554232008923</v>
+        <v>1.618772253139048</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.839464369261886</v>
@@ -14657,7 +14609,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.718508832442435</v>
+        <v>1.616273589705431</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.716588838690163</v>
@@ -14746,7 +14698,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.712133200641779</v>
+        <v>1.607321525603333</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.661305782148441</v>
@@ -14835,7 +14787,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.720150416731714</v>
+        <v>1.609314762640334</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.369309185911868</v>
@@ -14924,7 +14876,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.717740774440822</v>
+        <v>1.603668246939186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.292590664687987</v>
@@ -15013,7 +14965,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.707533729999452</v>
+        <v>1.59229556509058</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.412437585237712</v>
@@ -15102,7 +15054,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.708064735191778</v>
+        <v>1.592640185724049</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.358547957793558</v>
@@ -15191,7 +15143,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.717396677306873</v>
+        <v>1.600078476899915</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.094037417135604</v>
@@ -15280,7 +15232,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.724839374963115</v>
+        <v>1.608828334599654</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.504588763112946</v>
@@ -15369,7 +15321,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.728479697245133</v>
+        <v>1.611270211039773</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.872861401398956</v>
@@ -15458,7 +15410,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.72385200619654</v>
+        <v>1.607725485695791</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.66847267160139</v>
@@ -15547,7 +15499,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.7279723494649</v>
+        <v>1.607963399177611</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.587869671556355</v>
@@ -15636,7 +15588,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.727619385173431</v>
+        <v>1.598277375682669</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.708712257211118</v>
@@ -15725,7 +15677,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722677014266624</v>
+        <v>1.592760905581087</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.336751714531535</v>
@@ -15814,7 +15766,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.727111387133055</v>
+        <v>1.600686941908787</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.326697268058251</v>
@@ -15903,7 +15855,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.720297189457905</v>
+        <v>1.592571716349954</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.496781448784807</v>
@@ -15992,7 +15944,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726203858398123</v>
+        <v>1.601708147736755</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.349571958462884</v>
@@ -16081,7 +16033,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.719923425549523</v>
+        <v>1.59483067775766</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.454724650198812</v>
@@ -16170,7 +16122,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.714263668050714</v>
+        <v>1.587939109237442</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.400663192420498</v>
@@ -16259,7 +16211,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.703801917400657</v>
+        <v>1.579781208173038</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.302614925739238</v>
@@ -16348,7 +16300,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.701102629758477</v>
+        <v>1.577489227027253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.310969019902033</v>
@@ -16437,7 +16389,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.693104305038101</v>
+        <v>1.564112875118237</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.457579835142012</v>
@@ -16526,7 +16478,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686353083719923</v>
+        <v>1.559443166949442</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.443736018535728</v>
@@ -16615,7 +16567,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.674457709976469</v>
+        <v>1.537669532306934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.215421357380878</v>
@@ -16704,7 +16656,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.667824390737116</v>
+        <v>1.526718523809763</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.690860136656774</v>
@@ -16793,7 +16745,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667054067071917</v>
+        <v>1.524427219470355</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.380120241775766</v>
@@ -16882,7 +16834,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.670974524618563</v>
+        <v>1.529072033601577</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.650013029499317</v>
@@ -16971,7 +16923,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.68423844617996</v>
+        <v>1.548233247542923</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.218951245438742</v>
@@ -17060,7 +17012,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.680782611911941</v>
+        <v>1.542367545971976</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.213214647675987</v>
@@ -17149,7 +17101,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674271407701058</v>
+        <v>1.534096846084301</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.24353626733759</v>
@@ -17238,7 +17190,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672739690337146</v>
+        <v>1.532764303037785</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.123804339177302</v>
@@ -17327,7 +17279,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.680581342847552</v>
+        <v>1.542468386444228</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.307211397618089</v>
@@ -17416,7 +17368,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.693495209435486</v>
+        <v>1.565233455343694</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.63642622577079</v>
@@ -17702,7 +17654,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452645658618503</v>
+        <v>1.365099725316068</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.810576384544444</v>
@@ -17791,7 +17743,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.445290664183834</v>
+        <v>1.35295146264554</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.814157396432246</v>
@@ -17880,7 +17832,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.442988918235649</v>
+        <v>1.352422360279554</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.774330005189069</v>
@@ -17969,7 +17921,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.449250568990663</v>
+        <v>1.359449366227631</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.766525367279166</v>
@@ -18058,7 +18010,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.455451102987358</v>
+        <v>1.363367988766737</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.808784784713721</v>
@@ -18147,7 +18099,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.650508776053609</v>
+        <v>1.489028722298503</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.039726875095518</v>
@@ -18236,7 +18188,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64760699292566</v>
+        <v>1.497520884588922</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.001628600997491</v>
@@ -18325,7 +18277,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.629646894433071</v>
+        <v>1.489320856398961</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.110909100589989</v>
@@ -18414,7 +18366,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.626964882982791</v>
+        <v>1.493666395780763</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.816139030568547</v>
@@ -18503,7 +18455,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630115456152187</v>
+        <v>1.505352640108237</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.881537525337486</v>
@@ -18592,7 +18544,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.64815390208563</v>
+        <v>1.520770422646988</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.115600571397894</v>
@@ -18681,7 +18633,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.654856331870008</v>
+        <v>1.523177392180344</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.847535475452159</v>
@@ -18770,7 +18722,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.653954983108221</v>
+        <v>1.520347980346993</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.089605992684548</v>
@@ -18859,7 +18811,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645308745270213</v>
+        <v>1.516401577178579</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.843821871727208</v>
@@ -18948,7 +18900,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.645838672745883</v>
+        <v>1.513011857139077</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.904280128851765</v>
@@ -19037,7 +18989,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.64196816339686</v>
+        <v>1.501401290455188</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.959105127469097</v>
@@ -19126,7 +19078,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.636579613397868</v>
+        <v>1.49029040464059</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.978338603885336</v>
@@ -19215,7 +19167,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.632743035981847</v>
+        <v>1.468145250152099</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.810543631169871</v>
@@ -19304,7 +19256,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.627761529858409</v>
+        <v>1.461814487306226</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.071209742963255</v>
@@ -19393,7 +19345,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619566319326961</v>
+        <v>1.461754568752558</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.622178323300204</v>
@@ -19482,7 +19434,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619420709507977</v>
+        <v>1.460214166699702</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.950250443200806</v>
@@ -19571,7 +19523,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624900411944741</v>
+        <v>1.459775159155847</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.672694446734463</v>
@@ -19660,7 +19612,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.633199667452317</v>
+        <v>1.462058436113311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.151385226064757</v>
@@ -19749,7 +19701,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.623962736786597</v>
+        <v>1.45617746179654</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.047217439900991</v>
@@ -19838,7 +19790,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.622370061400247</v>
+        <v>1.452058575715224</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.836558569953808</v>
@@ -19927,7 +19879,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.620342708919174</v>
+        <v>1.44885365546144</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.138055778558404</v>
@@ -20016,7 +19968,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.612242937428073</v>
+        <v>1.443221983284713</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.163046191195202</v>
@@ -20105,7 +20057,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617987997084907</v>
+        <v>1.441591771141241</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.052845119528138</v>
@@ -20194,7 +20146,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.616379685502706</v>
+        <v>1.442135876054517</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.073795202177223</v>
@@ -20283,7 +20235,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606215273897039</v>
+        <v>1.433623047822743</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.09531211435072</v>
@@ -20372,7 +20324,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.608127625402185</v>
+        <v>1.435946952053391</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.104554719435266</v>
@@ -20461,7 +20413,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.6174235897096</v>
+        <v>1.456434129443785</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.673301590611481</v>
@@ -20550,7 +20502,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.6170126718669</v>
+        <v>1.464426718049808</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.125288746920311</v>
@@ -20639,7 +20591,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.621895562859919</v>
+        <v>1.465081633881618</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.222116925275463</v>
@@ -20728,7 +20680,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.631311061489645</v>
+        <v>1.470960458770959</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.233992645735956</v>
@@ -20817,7 +20769,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.632796496361409</v>
+        <v>1.475582116145134</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.268031447278824</v>
@@ -20906,7 +20858,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.645467386315845</v>
+        <v>1.484081841192955</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.227540032386147</v>
@@ -20995,7 +20947,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.645816074186723</v>
+        <v>1.485797735848993</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.3194690176628</v>
@@ -21084,7 +21036,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653619469690781</v>
+        <v>1.495736956532239</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.362086990809586</v>
@@ -21173,7 +21125,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654003313783353</v>
+        <v>1.495630754324241</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.188973008169289</v>
@@ -21262,7 +21214,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64776766819201</v>
+        <v>1.499170470950999</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.375791491181859</v>
@@ -21351,7 +21303,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.654342738880155</v>
+        <v>1.504210184585013</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.428865676463942</v>
@@ -21440,7 +21392,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659385831635995</v>
+        <v>1.512319681693828</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.045296756536129</v>
@@ -21529,7 +21481,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.66430879316324</v>
+        <v>1.510463652020381</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.007713004004362</v>
@@ -21618,7 +21570,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.664371778278455</v>
+        <v>1.50562214900903</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.979505626104646</v>
@@ -21707,7 +21659,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.678933838187533</v>
+        <v>1.516395966622506</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.755843607949909</v>
@@ -21796,7 +21748,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.668574806932286</v>
+        <v>1.513535844484246</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.298931752041832</v>
@@ -21885,7 +21837,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.668018914421077</v>
+        <v>1.520450121132312</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.680593130360493</v>
@@ -21974,7 +21926,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.663614649857771</v>
+        <v>1.523882949175473</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.8640119903899</v>
@@ -22063,7 +22015,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.660800621770687</v>
+        <v>1.51819991838011</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.521381061422936</v>
@@ -22152,7 +22104,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.646153674956759</v>
+        <v>1.50026098181234</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.810387910480512</v>
@@ -22438,7 +22390,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.291317146458905</v>
+        <v>1.279883151758965</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.681208248262549</v>
@@ -22527,7 +22479,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.289220338917363</v>
+        <v>1.275656302849471</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.674499960676527</v>
@@ -22616,7 +22568,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.283107081497967</v>
+        <v>1.267480039970193</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.667726739765815</v>
@@ -22705,7 +22657,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.287176440602427</v>
+        <v>1.270911686325379</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.665952950444465</v>
@@ -22794,7 +22746,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.301856968289134</v>
+        <v>1.287860776081501</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.641174031885788</v>
@@ -22883,7 +22835,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477705802516505</v>
+        <v>1.428434962900195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.064780636730982</v>
@@ -22972,7 +22924,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.552003942363516</v>
+        <v>1.484681963942058</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.642098330521336</v>
@@ -23061,7 +23013,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.549334793589907</v>
+        <v>1.48777273510028</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.489603833420996</v>
@@ -23150,7 +23102,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566081286948503</v>
+        <v>1.50473980232252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.796015411397323</v>
@@ -23239,7 +23191,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.570714973935594</v>
+        <v>1.51297282130645</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.741147474333597</v>
@@ -23328,7 +23280,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.577440717586647</v>
+        <v>1.51140593874035</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.713429364910905</v>
@@ -23417,7 +23369,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.573931541026186</v>
+        <v>1.50303467033729</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.745490924600329</v>
@@ -23506,7 +23458,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.562458019099445</v>
+        <v>1.49802663754247</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.821775642651282</v>
@@ -23595,7 +23547,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571817826346959</v>
+        <v>1.500673421032047</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.829113503118364</v>
@@ -23684,7 +23636,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572250219527738</v>
+        <v>1.502845812598329</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.668904408986169</v>
@@ -23773,7 +23725,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556654933367276</v>
+        <v>1.48948596347519</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.820921809044263</v>
@@ -23862,7 +23814,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545022453722984</v>
+        <v>1.475382632258775</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.8029207225899</v>
@@ -23951,7 +23903,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.539738976477043</v>
+        <v>1.473614380016545</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.743870087209043</v>
@@ -24040,7 +23992,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.565157030242114</v>
+        <v>1.482510953132927</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.011145089893916</v>
@@ -24129,7 +24081,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571184083310642</v>
+        <v>1.488140124468317</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.14548794454883</v>
@@ -24218,7 +24170,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580710801228566</v>
+        <v>1.499390535517469</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.120299949356298</v>
@@ -24307,7 +24259,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594680583677171</v>
+        <v>1.502781266681408</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.961714164943678</v>
@@ -24396,7 +24348,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602647499783323</v>
+        <v>1.505248592075775</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.237018966067198</v>
@@ -24485,7 +24437,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.6091885129195</v>
+        <v>1.506077514132952</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.884606232166087</v>
@@ -24574,7 +24526,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.609147732884578</v>
+        <v>1.505115372437412</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.261785141699828</v>
@@ -24663,7 +24615,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614705459897478</v>
+        <v>1.508918982126548</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.277672052258766</v>
@@ -24752,7 +24704,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59993963071049</v>
+        <v>1.503111332635513</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.895471444620768</v>
@@ -24841,7 +24793,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570436174609671</v>
+        <v>1.482363752632924</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.437394400968094</v>
@@ -24930,7 +24882,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.559642667968111</v>
+        <v>1.472127195147356</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.584489786711888</v>
@@ -25019,7 +24971,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.561436601161489</v>
+        <v>1.474191633128818</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.516325462454453</v>
@@ -25108,7 +25060,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.571231967438405</v>
+        <v>1.482175730716894</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.61513757565848</v>
@@ -25197,7 +25149,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572561576025449</v>
+        <v>1.486489385195166</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.538116167557998</v>
@@ -25286,7 +25238,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.583300467567889</v>
+        <v>1.496960257742614</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.465053843393141</v>
@@ -25375,7 +25327,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58959377860898</v>
+        <v>1.497332723975783</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.491826123535011</v>
@@ -25464,7 +25416,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.591693494012391</v>
+        <v>1.494675626022769</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.562092328891778</v>
@@ -25553,7 +25505,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.584804382661316</v>
+        <v>1.487707245493695</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.580068329198952</v>
@@ -25642,7 +25594,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.593643799954859</v>
+        <v>1.499941248315641</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.327327112788597</v>
@@ -25731,7 +25683,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585807548089513</v>
+        <v>1.498779169689649</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.493187158866348</v>
@@ -25820,7 +25772,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.586378264415525</v>
+        <v>1.499278567144705</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.57636284723866</v>
@@ -25909,7 +25861,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.580654660614959</v>
+        <v>1.493897192540034</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.613392591532795</v>
@@ -25998,7 +25950,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.585145328631986</v>
+        <v>1.501772146418003</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.455919896990405</v>
@@ -26087,7 +26039,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.601200555750354</v>
+        <v>1.502214878467247</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.54632978867566</v>
@@ -26176,7 +26128,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647199083191189</v>
+        <v>1.529208595276557</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.787533591021087</v>
@@ -26265,7 +26217,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.672409223382694</v>
+        <v>1.548508068045336</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.187705272597902</v>
@@ -26354,7 +26306,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.683895063188616</v>
+        <v>1.554335101016114</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.994212915402269</v>
@@ -26443,7 +26395,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.710573842534755</v>
+        <v>1.574861716076586</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.433047709993292</v>
@@ -26532,7 +26484,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712540924162421</v>
+        <v>1.58044455499072</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.600457993441457</v>
@@ -26621,7 +26573,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.698245896120326</v>
+        <v>1.566358602876601</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.229277044877304</v>
@@ -26710,7 +26662,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.695027688858239</v>
+        <v>1.57723173778475</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.577256318770507</v>
@@ -26799,7 +26751,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.661048528754384</v>
+        <v>1.54217478359122</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.011585934728226</v>
@@ -26888,7 +26840,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.584616533137379</v>
+        <v>1.490021788573963</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.060320406323921</v>
@@ -27174,7 +27126,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.349138800568809</v>
+        <v>1.326025544609099</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.676728591328674</v>
@@ -27263,7 +27215,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.353191451148112</v>
+        <v>1.326455903790598</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.672105237876446</v>
@@ -27352,7 +27304,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.355314073900325</v>
+        <v>1.328499940915239</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.679613995096595</v>
@@ -27441,7 +27393,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.359738158660497</v>
+        <v>1.334340507249644</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.664573684808111</v>
@@ -27530,7 +27482,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.360000070945237</v>
+        <v>1.336129051172718</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.658763031883689</v>
@@ -27619,7 +27571,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.501301705260221</v>
+        <v>1.466454651424978</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.839226367242543</v>
@@ -27708,7 +27660,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.556414174263015</v>
+        <v>1.516997289118054</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.49060492709188</v>
@@ -27797,7 +27749,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.515493289516456</v>
+        <v>1.488102896656599</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.220409942157721</v>
@@ -27886,7 +27838,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.514431207928182</v>
+        <v>1.491949193886196</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.253280140677144</v>
@@ -27975,7 +27927,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.51666674641857</v>
+        <v>1.495829996084265</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.200376357470881</v>
@@ -28064,7 +28016,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.526816487285101</v>
+        <v>1.500870200133197</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.151938683630856</v>
@@ -28153,7 +28105,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.544670320950555</v>
+        <v>1.505721096178117</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.27812178518499</v>
@@ -28242,7 +28194,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.483064917802383</v>
+        <v>1.463278531752872</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.309606385624298</v>
@@ -28331,7 +28283,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.483707724425738</v>
+        <v>1.465482891336154</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.328585435553899</v>
@@ -28420,7 +28372,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.475585339220207</v>
+        <v>1.463347443437339</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.189726759764829</v>
@@ -28509,7 +28461,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481333331303514</v>
+        <v>1.464862242458982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.194141713630777</v>
@@ -28598,7 +28550,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.475938591954111</v>
+        <v>1.456002128526318</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.302608401543337</v>
@@ -28687,7 +28639,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.47247690779223</v>
+        <v>1.442939911674757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.245446093440906</v>
@@ -28776,7 +28728,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500035894994064</v>
+        <v>1.461805584606803</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.297056647498051</v>
@@ -28865,7 +28817,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.510214622228899</v>
+        <v>1.475423158842607</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.194292299354885</v>
@@ -28954,7 +28906,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518560584384624</v>
+        <v>1.482803953266354</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.277838104041657</v>
@@ -29043,7 +28995,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.524876585227676</v>
+        <v>1.485243862756216</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.109713138874668</v>
@@ -29132,7 +29084,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.556880279602717</v>
+        <v>1.508790036918877</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.179588133493578</v>
@@ -29221,7 +29173,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552777077449099</v>
+        <v>1.501351675030181</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.330559344410909</v>
@@ -29310,7 +29262,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553278228371094</v>
+        <v>1.502465163568756</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.319327093010079</v>
@@ -29399,7 +29351,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544791309341697</v>
+        <v>1.498988480506395</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.308634613975836</v>
@@ -29488,7 +29440,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.563304878040036</v>
+        <v>1.516540305589341</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.061001812750908</v>
@@ -29577,7 +29529,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.594923214041821</v>
+        <v>1.529758305255075</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.899081424696111</v>
@@ -29666,7 +29618,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.585374265785695</v>
+        <v>1.52364294086085</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.752033421995076</v>
@@ -29755,7 +29707,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592742838970177</v>
+        <v>1.521573722748889</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.63154283269514</v>
@@ -29844,7 +29796,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584906808139913</v>
+        <v>1.512452951603771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.688831578236244</v>
@@ -29933,7 +29885,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588436151907619</v>
+        <v>1.524881740502627</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.810279736709241</v>
@@ -30022,7 +29974,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.599415802024825</v>
+        <v>1.54242509103668</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.771847068947921</v>
@@ -30111,7 +30063,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59985557190073</v>
+        <v>1.539482453463776</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.814915449625154</v>
@@ -30200,7 +30152,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.602565884674328</v>
+        <v>1.540864550675533</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.803265646980591</v>
@@ -30289,7 +30241,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603683340982035</v>
+        <v>1.544510571525655</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.639929204807705</v>
@@ -30378,7 +30330,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.63263607024693</v>
+        <v>1.566185274246592</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.878227992198231</v>
@@ -30467,7 +30419,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.635746005938865</v>
+        <v>1.568799853972713</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.831743325085754</v>
@@ -30556,7 +30508,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.644086904503772</v>
+        <v>1.575661351268892</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.771532927757074</v>
@@ -30645,7 +30597,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.639245850411366</v>
+        <v>1.568884339206803</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.757763269581885</v>
@@ -30734,7 +30686,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.656004781832628</v>
+        <v>1.579548321355273</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.51936750303514</v>
@@ -30823,7 +30775,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666710820467545</v>
+        <v>1.581934771102721</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.902824522113636</v>
@@ -30912,7 +30864,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.692080456985235</v>
+        <v>1.605391972694908</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.697458471256184</v>
@@ -31001,7 +30953,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.709220715003349</v>
+        <v>1.607070581945525</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.717352694395877</v>
@@ -31090,7 +31042,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.713855348560249</v>
+        <v>1.614569839295924</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.067784482687585</v>
@@ -31179,7 +31131,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.739564495888002</v>
+        <v>1.634691882537368</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.338718455539698</v>
@@ -31268,7 +31220,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.724947164529838</v>
+        <v>1.618143076662294</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.685158479969658</v>
@@ -31357,7 +31309,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.716245839217067</v>
+        <v>1.610610999411199</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.88594997004147</v>
@@ -31446,7 +31398,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.723962547039243</v>
+        <v>1.618996927731829</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.196986464784667</v>
@@ -31535,7 +31487,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.720465227711961</v>
+        <v>1.612258453411214</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.541870841407627</v>
@@ -31624,7 +31576,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.685598957202721</v>
+        <v>1.590915225715776</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.490120352007722</v>
